--- a/templates/salary_form.xlsx
+++ b/templates/salary_form.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a0ad72eb6bcd6663/Desktop/待付/11月匯/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\salary_printer\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1509" documentId="13_ncr:1_{EE563463-4DC8-4F5A-9514-0BBB0414693F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C41B9D38-6BD1-49A9-BBBC-DBD57052C992}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED36FC8-09AD-442E-B091-AAE6E91DB6F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="597" xr2:uid="{7BA8934C-802B-44B9-8983-90AB6839C2C5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" xr2:uid="{7BA8934C-802B-44B9-8983-90AB6839C2C5}"/>
   </bookViews>
   <sheets>
     <sheet name="薪資單" sheetId="4" r:id="rId1"/>
@@ -843,8 +843,59 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -873,62 +924,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -967,10 +967,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1275,7 +1271,7 @@
   </sheetPr>
   <dimension ref="A2:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
@@ -1288,13 +1284,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" s="2" customFormat="1" ht="27.75">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="28.5" thickBot="1">
       <c r="A3" s="1"/>
@@ -1304,8 +1300,8 @@
       <c r="A4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="35"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="11" t="s">
         <v>9</v>
       </c>
@@ -1323,22 +1319,22 @@
       <c r="E5" s="13"/>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="42" t="s">
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="43"/>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="39"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="54"/>
       <c r="D7" s="9" t="s">
         <v>19</v>
       </c>
@@ -1348,8 +1344,8 @@
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
       <c r="D8" s="4" t="s">
         <v>18</v>
       </c>
@@ -1359,8 +1355,8 @@
       <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="4" t="s">
         <v>31</v>
       </c>
@@ -1370,8 +1366,8 @@
       <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
       <c r="D10" s="4" t="s">
         <v>25</v>
       </c>
@@ -1381,8 +1377,8 @@
       <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
       <c r="D11" s="4" t="s">
         <v>27</v>
       </c>
@@ -1392,8 +1388,8 @@
       <c r="A12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
       <c r="D12" s="4" t="s">
         <v>1</v>
       </c>
@@ -1403,8 +1399,8 @@
       <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
     </row>
@@ -1412,8 +1408,8 @@
       <c r="A14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
     </row>
@@ -1421,15 +1417,15 @@
       <c r="A15" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
       <c r="D15" s="24"/>
       <c r="E15" s="25"/>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A16" s="8"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
     </row>
@@ -1437,8 +1433,8 @@
       <c r="A17" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="52"/>
-      <c r="C17" s="53"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="42"/>
       <c r="D17" s="18" t="s">
         <v>21</v>
       </c>
@@ -1454,75 +1450,75 @@
       <c r="E18" s="59"/>
     </row>
     <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="36" t="s">
+      <c r="B19" s="31"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="43"/>
+      <c r="E19" s="29"/>
     </row>
     <row r="20" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A20" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="28"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="45"/>
     </row>
     <row r="21" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="30"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="47"/>
     </row>
     <row r="22" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A22" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="30"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="47"/>
     </row>
     <row r="23" spans="1:5" ht="39.950000000000003" customHeight="1" thickBot="1">
       <c r="A23" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="48">
+      <c r="B23" s="36">
         <v>0</v>
       </c>
-      <c r="C23" s="49"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="30"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="47"/>
     </row>
     <row r="24" spans="1:5" ht="17.25" thickBot="1">
       <c r="A24" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="50">
+      <c r="B24" s="38">
         <f>SUM(B20:C23)</f>
         <v>0</v>
       </c>
-      <c r="C24" s="51"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="32"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="49"/>
     </row>
     <row r="25" spans="1:5" ht="54.95" customHeight="1" thickBot="1">
       <c r="A25" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="40">
+      <c r="B25" s="26">
         <f>B17-E17+B24</f>
         <v>0</v>
       </c>
-      <c r="C25" s="41"/>
+      <c r="C25" s="27"/>
       <c r="D25" s="17" t="s">
         <v>30</v>
       </c>
@@ -1531,6 +1527,16 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="26">
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D20:E24"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:E18"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="A19:C19"/>
@@ -1547,16 +1553,6 @@
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D20:E24"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:E18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">

--- a/templates/salary_form.xlsx
+++ b/templates/salary_form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\salary_printer\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED36FC8-09AD-442E-B091-AAE6E91DB6F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E6A786-BD5A-45BE-B2B5-F09AC372CA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" xr2:uid="{7BA8934C-802B-44B9-8983-90AB6839C2C5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" xr2:uid="{7BA8934C-802B-44B9-8983-90AB6839C2C5}"/>
   </bookViews>
   <sheets>
     <sheet name="薪資單" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>勞保金額</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -94,10 +94,6 @@
   </si>
   <si>
     <t>薪資年度/月份</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>臺灣環海探測技術股份有限公司</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -843,6 +839,63 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -855,12 +908,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -883,9 +930,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -896,54 +940,6 @@
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1272,7 +1268,7 @@
   <dimension ref="A2:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1284,13 +1280,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" s="2" customFormat="1" ht="27.75">
-      <c r="A2" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="28.5" thickBot="1">
       <c r="A3" s="1"/>
@@ -1300,8 +1294,8 @@
       <c r="A4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
       <c r="D4" s="11" t="s">
         <v>9</v>
       </c>
@@ -1319,24 +1313,24 @@
       <c r="E5" s="13"/>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="29"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="48"/>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="54"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="22"/>
     </row>
@@ -1344,52 +1338,52 @@
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
       <c r="D8" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="23"/>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
+        <v>25</v>
+      </c>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
       <c r="D9" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="23"/>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
+        <v>21</v>
+      </c>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" s="23"/>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
+        <v>28</v>
+      </c>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
+        <v>22</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
       <c r="D12" s="4" t="s">
         <v>1</v>
       </c>
@@ -1397,19 +1391,19 @@
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
+        <v>23</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
+        <v>27</v>
+      </c>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
     </row>
@@ -1417,126 +1411,116 @@
       <c r="A15" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="24"/>
       <c r="E15" s="25"/>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A16" s="8"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" ht="35.1" customHeight="1" thickBot="1">
       <c r="A17" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="42"/>
+        <v>14</v>
+      </c>
+      <c r="B17" s="57"/>
+      <c r="C17" s="58"/>
       <c r="D17" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17" s="20"/>
     </row>
     <row r="18" spans="1:5" ht="35.1" customHeight="1" thickBot="1">
-      <c r="A18" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="56"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="59"/>
+      <c r="A18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="41"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
     </row>
     <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="30" t="s">
+      <c r="B19" s="37"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="29"/>
+      <c r="E19" s="48"/>
     </row>
     <row r="20" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A20" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="45"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="28"/>
     </row>
     <row r="21" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="47"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="30"/>
     </row>
     <row r="22" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A22" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="47"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="30"/>
     </row>
     <row r="23" spans="1:5" ht="39.950000000000003" customHeight="1" thickBot="1">
       <c r="A23" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="36">
+      <c r="B23" s="53">
         <v>0</v>
       </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="47"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="30"/>
     </row>
     <row r="24" spans="1:5" ht="17.25" thickBot="1">
       <c r="A24" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="38">
+      <c r="B24" s="55">
         <f>SUM(B20:C23)</f>
         <v>0</v>
       </c>
-      <c r="C24" s="39"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="49"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="32"/>
     </row>
     <row r="25" spans="1:5" ht="54.95" customHeight="1" thickBot="1">
       <c r="A25" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="26">
+        <v>15</v>
+      </c>
+      <c r="B25" s="45">
         <f>B17-E17+B24</f>
         <v>0</v>
       </c>
-      <c r="C25" s="27"/>
+      <c r="C25" s="46"/>
       <c r="D25" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E25" s="15"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="26">
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D20:E24"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:E18"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="A19:C19"/>
@@ -1553,6 +1537,16 @@
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D20:E24"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:E18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">

--- a/templates/salary_form.xlsx
+++ b/templates/salary_form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\salary_printer\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E6A786-BD5A-45BE-B2B5-F09AC372CA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472D4853-2F77-424C-8202-B7912F475985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" xr2:uid="{7BA8934C-802B-44B9-8983-90AB6839C2C5}"/>
+    <workbookView xWindow="5220" yWindow="3645" windowWidth="21600" windowHeight="11295" tabRatio="597" xr2:uid="{7BA8934C-802B-44B9-8983-90AB6839C2C5}"/>
   </bookViews>
   <sheets>
     <sheet name="薪資單" sheetId="4" r:id="rId1"/>
@@ -776,9 +776,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -821,44 +818,98 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -869,17 +920,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -895,51 +940,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1267,8 +1267,8 @@
   </sheetPr>
   <dimension ref="A2:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1280,247 +1280,249 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" s="2" customFormat="1" ht="27.75">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="28.5" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="11" t="s">
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="12"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="13"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="47" t="s">
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="48"/>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="9" t="s">
+      <c r="B7" s="53"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="22"/>
+      <c r="E7" s="21"/>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="23"/>
+      <c r="E8" s="22"/>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
       <c r="D9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="23"/>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
       <c r="D10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="23"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
       <c r="D11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="23"/>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
       <c r="D12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="22"/>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="23"/>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="5"/>
+      <c r="E14" s="23"/>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="25"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="24"/>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A16" s="8"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="23"/>
     </row>
     <row r="17" spans="1:5" ht="35.1" customHeight="1" thickBot="1">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="18" t="s">
+      <c r="B17" s="41"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="20"/>
+      <c r="E17" s="25"/>
     </row>
     <row r="18" spans="1:5" ht="35.1" customHeight="1" thickBot="1">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="59"/>
     </row>
     <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="36" t="s">
+      <c r="B19" s="31"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="48"/>
+      <c r="E19" s="29"/>
     </row>
     <row r="20" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="28"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="45"/>
     </row>
     <row r="21" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="30"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="47"/>
     </row>
     <row r="22" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="30"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="47"/>
     </row>
     <row r="23" spans="1:5" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="53">
-        <v>0</v>
-      </c>
-      <c r="C23" s="54"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="30"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="47"/>
     </row>
     <row r="24" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="55">
-        <f>SUM(B20:C23)</f>
-        <v>0</v>
-      </c>
-      <c r="C24" s="56"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="32"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="49"/>
     </row>
     <row r="25" spans="1:5" ht="54.95" customHeight="1" thickBot="1">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="45">
-        <f>B17-E17+B24</f>
-        <v>0</v>
-      </c>
-      <c r="C25" s="46"/>
-      <c r="D25" s="17" t="s">
+      <c r="B25" s="26"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="15"/>
+      <c r="E25" s="14"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="26">
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D20:E24"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:E18"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="A19:C19"/>
@@ -1537,16 +1539,6 @@
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D20:E24"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:E18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">

--- a/templates/salary_form.xlsx
+++ b/templates/salary_form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\salary_printer\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472D4853-2F77-424C-8202-B7912F475985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBB6AFC-B0E3-4BFC-8C45-F37284AC6970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="3645" windowWidth="21600" windowHeight="11295" tabRatio="597" xr2:uid="{7BA8934C-802B-44B9-8983-90AB6839C2C5}"/>
+    <workbookView xWindow="5340" yWindow="2085" windowWidth="21600" windowHeight="11295" tabRatio="597" xr2:uid="{7BA8934C-802B-44B9-8983-90AB6839C2C5}"/>
   </bookViews>
   <sheets>
     <sheet name="薪資單" sheetId="4" r:id="rId1"/>
@@ -158,13 +158,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(姓名)
- 年  月
-薪資簽收</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>勞退-自行提撥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>薪資簽收</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -794,9 +792,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -837,6 +832,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1267,8 +1265,8 @@
   </sheetPr>
   <dimension ref="A2:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1299,7 +1297,7 @@
       <c r="D4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A5" s="5" t="s">
@@ -1310,7 +1308,7 @@
       <c r="D5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="12"/>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A6" s="30" t="s">
@@ -1332,7 +1330,7 @@
       <c r="D7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="21"/>
+      <c r="E7" s="20"/>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="3" t="s">
@@ -1343,7 +1341,7 @@
       <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="22"/>
+      <c r="E8" s="21"/>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="3" t="s">
@@ -1352,9 +1350,9 @@
       <c r="B9" s="40"/>
       <c r="C9" s="40"/>
       <c r="D9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="22"/>
+        <v>29</v>
+      </c>
+      <c r="E9" s="21"/>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="3" t="s">
@@ -1365,7 +1363,7 @@
       <c r="D10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="22"/>
+      <c r="E10" s="21"/>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="3" t="s">
@@ -1376,7 +1374,7 @@
       <c r="D11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="23"/>
+      <c r="E11" s="21"/>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="3" t="s">
@@ -1387,7 +1385,7 @@
       <c r="D12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="22"/>
+      <c r="E12" s="21"/>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="3" t="s">
@@ -1396,7 +1394,7 @@
       <c r="B13" s="40"/>
       <c r="C13" s="40"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="23"/>
+      <c r="E13" s="22"/>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="7" t="s">
@@ -1405,7 +1403,7 @@
       <c r="B14" s="40"/>
       <c r="C14" s="40"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="23"/>
+      <c r="E14" s="22"/>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="7" t="s">
@@ -1413,26 +1411,26 @@
       </c>
       <c r="B15" s="40"/>
       <c r="C15" s="40"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="24"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="23"/>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A16" s="7"/>
       <c r="B16" s="43"/>
       <c r="C16" s="43"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="23"/>
+      <c r="E16" s="22"/>
     </row>
     <row r="17" spans="1:5" ht="35.1" customHeight="1" thickBot="1">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="41"/>
       <c r="C17" s="42"/>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="25"/>
+      <c r="E17" s="24"/>
     </row>
     <row r="18" spans="1:5" ht="35.1" customHeight="1" thickBot="1">
       <c r="A18" s="55" t="s">
@@ -1473,7 +1471,7 @@
       <c r="E21" s="47"/>
     </row>
     <row r="22" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="32"/>
@@ -1491,7 +1489,7 @@
       <c r="E23" s="47"/>
     </row>
     <row r="24" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="38"/>
@@ -1500,15 +1498,15 @@
       <c r="E24" s="49"/>
     </row>
     <row r="25" spans="1:5" ht="54.95" customHeight="1" thickBot="1">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B25" s="26"/>
       <c r="C25" s="27"/>
-      <c r="D25" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="14"/>
+      <c r="D25" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="13"/>
     </row>
   </sheetData>
   <dataConsolidate/>

--- a/templates/salary_form.xlsx
+++ b/templates/salary_form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\salary_printer\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBB6AFC-B0E3-4BFC-8C45-F37284AC6970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F326CC-21AC-44E3-AA1E-1D5A56535C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="2085" windowWidth="21600" windowHeight="11295" tabRatio="597" xr2:uid="{7BA8934C-802B-44B9-8983-90AB6839C2C5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" xr2:uid="{7BA8934C-802B-44B9-8983-90AB6839C2C5}"/>
   </bookViews>
   <sheets>
     <sheet name="薪資單" sheetId="4" r:id="rId1"/>
@@ -837,6 +837,66 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -849,12 +909,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -867,77 +921,23 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1278,11 +1278,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" s="2" customFormat="1" ht="27.75">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="28.5" thickBot="1">
       <c r="A3" s="1"/>
@@ -1292,8 +1292,8 @@
       <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="10" t="s">
         <v>9</v>
       </c>
@@ -1311,22 +1311,22 @@
       <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="28" t="s">
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="29"/>
+      <c r="E6" s="49"/>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="54"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="40"/>
       <c r="D7" s="8" t="s">
         <v>18</v>
       </c>
@@ -1336,8 +1336,8 @@
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
@@ -1347,8 +1347,8 @@
       <c r="A9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
       <c r="D9" s="4" t="s">
         <v>29</v>
       </c>
@@ -1358,8 +1358,8 @@
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="4" t="s">
         <v>24</v>
       </c>
@@ -1369,8 +1369,8 @@
       <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="4" t="s">
         <v>26</v>
       </c>
@@ -1380,8 +1380,8 @@
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
       <c r="D12" s="4" t="s">
         <v>1</v>
       </c>
@@ -1391,8 +1391,8 @@
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="4"/>
       <c r="E13" s="22"/>
     </row>
@@ -1400,8 +1400,8 @@
       <c r="A14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="4"/>
       <c r="E14" s="22"/>
     </row>
@@ -1409,15 +1409,15 @@
       <c r="A15" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="19"/>
       <c r="E15" s="23"/>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A16" s="7"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="4"/>
       <c r="E16" s="22"/>
     </row>
@@ -1425,84 +1425,84 @@
       <c r="A17" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="42"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="57"/>
       <c r="D17" s="16" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="24"/>
     </row>
     <row r="18" spans="1:5" ht="35.1" customHeight="1" thickBot="1">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="56"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="59"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="45"/>
     </row>
     <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="30" t="s">
+      <c r="B19" s="38"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="29"/>
+      <c r="E19" s="49"/>
     </row>
     <row r="20" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A20" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="45"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="29"/>
     </row>
     <row r="21" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="47"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="31"/>
     </row>
     <row r="22" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A22" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="47"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="31"/>
     </row>
     <row r="23" spans="1:5" ht="39.950000000000003" customHeight="1" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="47"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="31"/>
     </row>
     <row r="24" spans="1:5" ht="17.25" thickBot="1">
       <c r="A24" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="49"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="33"/>
     </row>
     <row r="25" spans="1:5" ht="54.95" customHeight="1" thickBot="1">
       <c r="A25" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="27"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="47"/>
       <c r="D25" s="15" t="s">
         <v>30</v>
       </c>
@@ -1511,16 +1511,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="26">
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D20:E24"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:E18"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="A19:C19"/>
@@ -1537,6 +1527,16 @@
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D20:E24"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:E18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">

--- a/templates/salary_form.xlsx
+++ b/templates/salary_form.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\salary_printer\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F326CC-21AC-44E3-AA1E-1D5A56535C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FB8D66-084A-47ED-946B-1B9F6617A6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" xr2:uid="{7BA8934C-802B-44B9-8983-90AB6839C2C5}"/>
+    <workbookView xWindow="3525" yWindow="3000" windowWidth="23100" windowHeight="11295" tabRatio="597" xr2:uid="{7BA8934C-802B-44B9-8983-90AB6839C2C5}"/>
   </bookViews>
   <sheets>
     <sheet name="薪資單" sheetId="4" r:id="rId1"/>
@@ -101,68 +101,68 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>應扣款項</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>健保自付額</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>勞保自付額</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>實領薪資(A-B)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>應扣款項(B)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加班費</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海勤津貼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>廚師津貼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>補充保費</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>請假扣薪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>薪資所得稅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>獎金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">出差津貼 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>勞退-自行提撥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>薪資簽收</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>公司總計支出
-(A-B+C)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>應扣款項</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>健保自付額</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>勞保自付額</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>實領薪資(A-B)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>應扣款項(B)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>加班費</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>海勤津貼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>廚師津貼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>補充保費</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>請假扣薪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>薪資所得稅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>獎金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">出差津貼 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>勞退-自行提撥</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>薪資簽收</t>
+(A+C)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -837,7 +837,55 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -870,12 +918,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -896,48 +938,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1265,8 +1265,8 @@
   </sheetPr>
   <dimension ref="A2:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1278,11 +1278,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" s="2" customFormat="1" ht="27.75">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="28.5" thickBot="1">
       <c r="A3" s="1"/>
@@ -1292,8 +1292,8 @@
       <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="36"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="10" t="s">
         <v>9</v>
       </c>
@@ -1311,24 +1311,24 @@
       <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="49"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="40"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="54"/>
       <c r="D7" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="20"/>
     </row>
@@ -1336,52 +1336,52 @@
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" s="21"/>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
+        <v>24</v>
+      </c>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
       <c r="D9" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="21"/>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
+        <v>20</v>
+      </c>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
       <c r="D10" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="21"/>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
+        <v>27</v>
+      </c>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
       <c r="D11" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" s="21"/>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
+        <v>21</v>
+      </c>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
       <c r="D12" s="4" t="s">
         <v>1</v>
       </c>
@@ -1389,19 +1389,19 @@
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
+        <v>22</v>
+      </c>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
       <c r="D13" s="4"/>
       <c r="E13" s="22"/>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
+        <v>26</v>
+      </c>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
       <c r="D14" s="4"/>
       <c r="E14" s="22"/>
     </row>
@@ -1409,15 +1409,15 @@
       <c r="A15" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
       <c r="D15" s="19"/>
       <c r="E15" s="23"/>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A16" s="7"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
       <c r="D16" s="4"/>
       <c r="E16" s="22"/>
     </row>
@@ -1425,92 +1425,102 @@
       <c r="A17" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="56"/>
-      <c r="C17" s="57"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="42"/>
       <c r="D17" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E17" s="24"/>
     </row>
     <row r="18" spans="1:5" ht="35.1" customHeight="1" thickBot="1">
-      <c r="A18" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="45"/>
+      <c r="A18" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="56"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="59"/>
     </row>
     <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="37" t="s">
+      <c r="B19" s="31"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="49"/>
+      <c r="E19" s="29"/>
     </row>
     <row r="20" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A20" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="52"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="29"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="45"/>
     </row>
     <row r="21" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="47"/>
     </row>
     <row r="22" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A22" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="50"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="31"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="47"/>
     </row>
     <row r="23" spans="1:5" ht="39.950000000000003" customHeight="1" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="58"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="31"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="47"/>
     </row>
     <row r="24" spans="1:5" ht="17.25" thickBot="1">
       <c r="A24" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="33"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="49"/>
     </row>
     <row r="25" spans="1:5" ht="54.95" customHeight="1" thickBot="1">
       <c r="A25" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="46"/>
-      <c r="C25" s="47"/>
+        <v>30</v>
+      </c>
+      <c r="B25" s="26"/>
+      <c r="C25" s="27"/>
       <c r="D25" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E25" s="13"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="26">
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D20:E24"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:E18"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="A19:C19"/>
@@ -1527,16 +1537,6 @@
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D20:E24"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:E18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
